--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#Mastercourse2023\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC7536A8-E081-49B9-9188-8CF5B08E48C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32DA882-0298-4AD5-B9DC-89A038FE8EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
   <si>
     <t>Subject</t>
   </si>
@@ -134,6 +134,24 @@
   </si>
   <si>
     <t xml:space="preserve"> Homework - Conditional Statements (2:31)</t>
+  </si>
+  <si>
+    <t>Week/Total</t>
+  </si>
+  <si>
+    <t>Week2</t>
+  </si>
+  <si>
+    <t>Week3</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t>Week1 -9</t>
+  </si>
+  <si>
+    <t>Week5</t>
   </si>
 </sst>
 </file>
@@ -665,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1688,10 +1706,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB08C86-B509-4E1B-9B3D-EE2889F024B5}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1699,9 +1717,10 @@
     <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>6</v>
       </c>
@@ -1714,10 +1733,13 @@
       <c r="D1" s="8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>45048</v>
+        <v>45047</v>
       </c>
       <c r="B2" s="2">
         <v>1</v>
@@ -1726,13 +1748,13 @@
         <v>1</v>
       </c>
       <c r="D2" s="2">
-        <f>SUM(C1:C2)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>45049</v>
+        <v>45048</v>
       </c>
       <c r="B3" s="2">
         <v>2</v>
@@ -1744,10 +1766,11 @@
         <f>SUM(C2:C3)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>45050</v>
+        <v>45049</v>
       </c>
       <c r="B4" s="2">
         <v>3</v>
@@ -1759,10 +1782,11 @@
         <f>SUM(C2:C4)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>45051</v>
+        <v>45050</v>
       </c>
       <c r="B5" s="2">
         <v>4</v>
@@ -1774,10 +1798,11 @@
         <f>SUM(C2:C5)</f>
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>45052</v>
+        <v>45051</v>
       </c>
       <c r="B6" s="2">
         <v>5</v>
@@ -1789,20 +1814,361 @@
         <f>SUM(C2:C6)</f>
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>45053</v>
+        <v>45052</v>
       </c>
       <c r="B7" s="2">
         <v>6</v>
       </c>
       <c r="C7" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="2">
         <f>SUM(C2:C7)</f>
+        <v>6</v>
+      </c>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="13">
+        <v>45053</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>3</v>
+      </c>
+      <c r="D8" s="2">
+        <f>SUM(C2:C8)</f>
+        <v>9</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="13">
+        <v>45054</v>
+      </c>
+      <c r="B9" s="2">
         <v>8</v>
+      </c>
+      <c r="C9" s="2">
+        <v>3</v>
+      </c>
+      <c r="D9" s="2">
+        <f>SUM(C2:C9)</f>
+        <v>12</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="13">
+        <v>45055</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="13">
+        <v>45056</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13">
+        <v>45057</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="13">
+        <v>45058</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="13">
+        <v>45059</v>
+      </c>
+      <c r="B14" s="2">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13">
+        <v>45060</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13">
+        <v>45061</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13">
+        <v>45062</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="13">
+        <v>45063</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="13">
+        <v>45064</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="13">
+        <v>45065</v>
+      </c>
+      <c r="B20" s="2">
+        <v>19</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="13">
+        <v>45066</v>
+      </c>
+      <c r="B21" s="2">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="13">
+        <v>45067</v>
+      </c>
+      <c r="B22" s="2">
+        <v>21</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="13">
+        <v>45068</v>
+      </c>
+      <c r="B23" s="2">
+        <v>22</v>
+      </c>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="13">
+        <v>45069</v>
+      </c>
+      <c r="B24" s="2">
+        <v>23</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="13">
+        <v>45070</v>
+      </c>
+      <c r="B25" s="2">
+        <v>24</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="13">
+        <v>45071</v>
+      </c>
+      <c r="B26" s="2">
+        <v>25</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="13">
+        <v>45072</v>
+      </c>
+      <c r="B27" s="2">
+        <v>26</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="13">
+        <v>45073</v>
+      </c>
+      <c r="B28" s="2">
+        <v>27</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="13">
+        <v>45074</v>
+      </c>
+      <c r="B29" s="2">
+        <v>28</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="13">
+        <v>45075</v>
+      </c>
+      <c r="B30" s="2">
+        <v>29</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="13">
+        <v>45076</v>
+      </c>
+      <c r="B31" s="2">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="13">
+        <v>45077</v>
+      </c>
+      <c r="B32" s="2">
+        <v>31</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="13">
+        <v>45078</v>
+      </c>
+      <c r="B33" s="2">
+        <v>32</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="13">
+        <v>45079</v>
+      </c>
+      <c r="B34" s="2">
+        <v>33</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="13">
+        <v>45080</v>
+      </c>
+      <c r="B35" s="2">
+        <v>34</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="13">
+        <v>45081</v>
+      </c>
+      <c r="B36" s="2">
+        <v>35</v>
+      </c>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#Mastercourse2023\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B32DA882-0298-4AD5-B9DC-89A038FE8EDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92B502-814C-42DF-AA09-4FDBBE522A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -683,7 +683,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
@@ -1708,8 +1708,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB08C86-B509-4E1B-9B3D-EE2889F024B5}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1873,8 +1873,13 @@
       <c r="B10" s="2">
         <v>9</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2">
+        <f>SUM(C2:C10)</f>
+        <v>14</v>
+      </c>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">

--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#Mastercourse2023\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB92B502-814C-42DF-AA09-4FDBBE522A88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FE3A2-6FF5-4273-B36E-6F57A0DA5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16050" yWindow="75" windowWidth="17535" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Week/Total</t>
   </si>
   <si>
-    <t>Week2</t>
-  </si>
-  <si>
     <t>Week3</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Week5</t>
+  </si>
+  <si>
+    <t>Week2 15</t>
   </si>
 </sst>
 </file>
@@ -1709,7 +1709,7 @@
   <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1847,7 +1847,7 @@
         <v>9</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1889,8 +1889,12 @@
       <c r="B11" s="2">
         <v>10</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>15</v>
+      </c>
       <c r="E11" s="5"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1900,8 +1904,12 @@
       <c r="B12" s="2">
         <v>11</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
+      <c r="C12" s="5">
+        <v>0</v>
+      </c>
+      <c r="D12" s="5">
+        <v>15</v>
+      </c>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1911,8 +1919,12 @@
       <c r="B13" s="2">
         <v>12</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="C13" s="5">
+        <v>0</v>
+      </c>
+      <c r="D13" s="5">
+        <v>15</v>
+      </c>
       <c r="E13" s="5"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1922,8 +1934,12 @@
       <c r="B14" s="2">
         <v>13</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+      <c r="C14" s="5">
+        <v>0</v>
+      </c>
+      <c r="D14" s="5">
+        <v>15</v>
+      </c>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1933,10 +1949,14 @@
       <c r="B15" s="2">
         <v>14</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
+      <c r="C15" s="5">
+        <v>0</v>
+      </c>
+      <c r="D15" s="5">
+        <v>15</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1946,8 +1966,12 @@
       <c r="B16" s="2">
         <v>15</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>16</v>
+      </c>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2015,7 +2039,7 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -2094,7 +2118,7 @@
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2173,7 +2197,7 @@
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\C#Mastercourse2023\Learning-Path-Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8FE3A2-6FF5-4273-B36E-6F57A0DA5F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{773A1F4E-3B6F-4BD4-86C3-3143F99C744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16050" yWindow="75" windowWidth="17535" windowHeight="15270" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
   <si>
     <t>Subject</t>
   </si>
@@ -139,9 +139,6 @@
     <t>Week/Total</t>
   </si>
   <si>
-    <t>Week3</t>
-  </si>
-  <si>
     <t>Week4</t>
   </si>
   <si>
@@ -152,13 +149,59 @@
   </si>
   <si>
     <t>Week2 15</t>
+  </si>
+  <si>
+    <t>Topic</t>
+  </si>
+  <si>
+    <t>Mini Project for Conditionals. Started do/while loops</t>
+  </si>
+  <si>
+    <t>Nothing</t>
+  </si>
+  <si>
+    <t>For/Foreach loops</t>
+  </si>
+  <si>
+    <t>Arrays and Dictionairies</t>
+  </si>
+  <si>
+    <t>Methods</t>
+  </si>
+  <si>
+    <t>Methods returning data and Tuples</t>
+  </si>
+  <si>
+    <t>Mini Guestbook project TC Version</t>
+  </si>
+  <si>
+    <t>Mini Guestbook project my version</t>
+  </si>
+  <si>
+    <t>Planning Mini Guestbook project</t>
+  </si>
+  <si>
+    <t>Conditionals Practice</t>
+  </si>
+  <si>
+    <t>Staring up Tim Corey, Visual Studio/Github/Personal Website setup and WordPress</t>
+  </si>
+  <si>
+    <t>Week3 20</t>
+  </si>
+  <si>
+    <t>Learning review
+Practice Hotel Console Booking App</t>
+  </si>
+  <si>
+    <t>Notes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +234,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -258,7 +307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -291,6 +340,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -580,13 +635,13 @@
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -597,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
         <v>45052</v>
       </c>
@@ -608,67 +663,67 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
@@ -687,14 +742,14 @@
       <selection activeCell="C39" sqref="C39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="174.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.26953125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="174.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -705,21 +760,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="10"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="11"/>
       <c r="C3" s="2"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -728,14 +783,14 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="11"/>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
@@ -744,14 +799,14 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="11"/>
       <c r="C7" s="2"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -760,14 +815,14 @@
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="2"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -776,14 +831,14 @@
       </c>
       <c r="C10" s="2"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="11"/>
       <c r="C11" s="2"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -792,14 +847,14 @@
       </c>
       <c r="C12" s="2"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="11"/>
       <c r="C13" s="2"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -808,14 +863,14 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>17</v>
       </c>
@@ -824,14 +879,14 @@
       </c>
       <c r="C16" s="2"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B17" s="11"/>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -840,14 +895,14 @@
       </c>
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="11"/>
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>19</v>
       </c>
@@ -856,14 +911,14 @@
       </c>
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>20</v>
       </c>
@@ -872,14 +927,14 @@
       </c>
       <c r="C22" s="2"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="11"/>
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -888,14 +943,14 @@
       </c>
       <c r="C24" s="2"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="2"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -904,14 +959,14 @@
       </c>
       <c r="C26" s="2"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B27" s="11"/>
       <c r="C27" s="2"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -920,26 +975,26 @@
       </c>
       <c r="C28" s="2"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" s="2"/>
       <c r="B29" s="11"/>
       <c r="C29" s="2"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B30" s="11"/>
       <c r="C30" s="2"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="11"/>
       <c r="C31" s="2"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -948,14 +1003,14 @@
       </c>
       <c r="C32" s="2"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="11"/>
       <c r="C33" s="2"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>28</v>
       </c>
@@ -964,14 +1019,14 @@
       </c>
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="11"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>29</v>
       </c>
@@ -980,14 +1035,14 @@
       </c>
       <c r="C36" s="2"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="11"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>30</v>
       </c>
@@ -996,14 +1051,14 @@
       </c>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="11"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -1012,687 +1067,687 @@
       </c>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="2"/>
       <c r="B41" s="11"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="2"/>
       <c r="B42" s="11"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="2"/>
       <c r="B43" s="11"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A44" s="2"/>
       <c r="B44" s="11"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="2"/>
       <c r="B45" s="11"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A46" s="2"/>
       <c r="B46" s="11"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" s="2"/>
       <c r="B47" s="11"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="2"/>
       <c r="B48" s="11"/>
       <c r="C48" s="2"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A49" s="2"/>
       <c r="B49" s="11"/>
       <c r="C49" s="2"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A50" s="2"/>
       <c r="B50" s="11"/>
       <c r="C50" s="2"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="2"/>
       <c r="B51" s="11"/>
       <c r="C51" s="2"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A52" s="2"/>
       <c r="B52" s="11"/>
       <c r="C52" s="2"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A53" s="2"/>
       <c r="B53" s="11"/>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" s="2"/>
       <c r="B54" s="11"/>
       <c r="C54" s="2"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" s="2"/>
       <c r="B55" s="11"/>
       <c r="C55" s="2"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" s="2"/>
       <c r="B56" s="11"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="2"/>
       <c r="B57" s="11"/>
       <c r="C57" s="2"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A58" s="2"/>
       <c r="B58" s="11"/>
       <c r="C58" s="2"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A59" s="2"/>
       <c r="B59" s="11"/>
       <c r="C59" s="2"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A60" s="2"/>
       <c r="B60" s="11"/>
       <c r="C60" s="2"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" s="2"/>
       <c r="B61" s="11"/>
       <c r="C61" s="2"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A62" s="2"/>
       <c r="B62" s="11"/>
       <c r="C62" s="2"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A63" s="2"/>
       <c r="B63" s="11"/>
       <c r="C63" s="2"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" s="2"/>
       <c r="B64" s="11"/>
       <c r="C64" s="2"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="2"/>
       <c r="B65" s="11"/>
       <c r="C65" s="2"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="2"/>
       <c r="B66" s="11"/>
       <c r="C66" s="2"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="2"/>
       <c r="B67" s="11"/>
       <c r="C67" s="2"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="2"/>
       <c r="B68" s="11"/>
       <c r="C68" s="2"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="2"/>
       <c r="B69" s="11"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="2"/>
       <c r="B70" s="11"/>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="2"/>
       <c r="B71" s="11"/>
       <c r="C71" s="2"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="2"/>
       <c r="B72" s="11"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="2"/>
       <c r="B73" s="11"/>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="2"/>
       <c r="B74" s="11"/>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="2"/>
       <c r="B75" s="11"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="2"/>
       <c r="B76" s="11"/>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="2"/>
       <c r="B77" s="11"/>
       <c r="C77" s="2"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="2"/>
       <c r="B78" s="11"/>
       <c r="C78" s="2"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="2"/>
       <c r="B79" s="11"/>
       <c r="C79" s="2"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="2"/>
       <c r="B80" s="11"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" s="2"/>
       <c r="B81" s="11"/>
       <c r="C81" s="2"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" s="2"/>
       <c r="B82" s="11"/>
       <c r="C82" s="2"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" s="2"/>
       <c r="B83" s="11"/>
       <c r="C83" s="2"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="2"/>
       <c r="B84" s="11"/>
       <c r="C84" s="2"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" s="2"/>
       <c r="B85" s="11"/>
       <c r="C85" s="2"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" s="2"/>
       <c r="B86" s="11"/>
       <c r="C86" s="2"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" s="2"/>
       <c r="B87" s="11"/>
       <c r="C87" s="2"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="2"/>
       <c r="B88" s="11"/>
       <c r="C88" s="2"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" s="2"/>
       <c r="B89" s="11"/>
       <c r="C89" s="2"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A90" s="2"/>
       <c r="B90" s="11"/>
       <c r="C90" s="2"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A91" s="2"/>
       <c r="B91" s="11"/>
       <c r="C91" s="2"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" s="2"/>
       <c r="B92" s="11"/>
       <c r="C92" s="2"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" s="2"/>
       <c r="B93" s="11"/>
       <c r="C93" s="2"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A94" s="2"/>
       <c r="B94" s="11"/>
       <c r="C94" s="2"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" s="2"/>
       <c r="B95" s="11"/>
       <c r="C95" s="2"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" s="2"/>
       <c r="B96" s="11"/>
       <c r="C96" s="2"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" s="2"/>
       <c r="B97" s="11"/>
       <c r="C97" s="2"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="2"/>
       <c r="B98" s="11"/>
       <c r="C98" s="2"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="2"/>
       <c r="B99" s="11"/>
       <c r="C99" s="2"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" s="2"/>
       <c r="B100" s="11"/>
       <c r="C100" s="2"/>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A101" s="2"/>
       <c r="B101" s="11"/>
       <c r="C101" s="2"/>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A102" s="2"/>
       <c r="B102" s="11"/>
       <c r="C102" s="2"/>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" s="2"/>
       <c r="B103" s="11"/>
       <c r="C103" s="2"/>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A104" s="2"/>
       <c r="B104" s="11"/>
       <c r="C104" s="2"/>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A105" s="2"/>
       <c r="B105" s="11"/>
       <c r="C105" s="2"/>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" s="2"/>
       <c r="B106" s="11"/>
       <c r="C106" s="2"/>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A107" s="2"/>
       <c r="B107" s="11"/>
       <c r="C107" s="2"/>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A108" s="2"/>
       <c r="B108" s="11"/>
       <c r="C108" s="2"/>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A109" s="2"/>
       <c r="B109" s="11"/>
       <c r="C109" s="2"/>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" s="2"/>
       <c r="B110" s="11"/>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" s="2"/>
       <c r="B111" s="11"/>
       <c r="C111" s="2"/>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" s="2"/>
       <c r="B112" s="11"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A113" s="2"/>
       <c r="B113" s="11"/>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="2"/>
       <c r="B114" s="11"/>
       <c r="C114" s="2"/>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" s="2"/>
       <c r="B115" s="11"/>
       <c r="C115" s="2"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A116" s="2"/>
       <c r="B116" s="11"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" s="2"/>
       <c r="B117" s="11"/>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" s="2"/>
       <c r="B118" s="11"/>
       <c r="C118" s="2"/>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="2"/>
       <c r="B119" s="11"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A120" s="2"/>
       <c r="B120" s="11"/>
       <c r="C120" s="2"/>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" s="2"/>
       <c r="B121" s="11"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="2"/>
       <c r="B122" s="11"/>
       <c r="C122" s="2"/>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" s="2"/>
       <c r="B123" s="11"/>
       <c r="C123" s="2"/>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" s="2"/>
       <c r="B124" s="11"/>
       <c r="C124" s="2"/>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" s="2"/>
       <c r="B125" s="11"/>
       <c r="C125" s="2"/>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A126" s="2"/>
       <c r="B126" s="11"/>
       <c r="C126" s="2"/>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A127" s="2"/>
       <c r="B127" s="11"/>
       <c r="C127" s="2"/>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" s="2"/>
       <c r="B128" s="11"/>
       <c r="C128" s="2"/>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" s="2"/>
       <c r="B129" s="11"/>
       <c r="C129" s="2"/>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" s="2"/>
       <c r="B130" s="11"/>
       <c r="C130" s="2"/>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" s="2"/>
       <c r="B131" s="11"/>
       <c r="C131" s="2"/>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" s="2"/>
       <c r="B132" s="11"/>
       <c r="C132" s="2"/>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" s="2"/>
       <c r="B133" s="11"/>
       <c r="C133" s="2"/>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" s="2"/>
       <c r="B134" s="11"/>
       <c r="C134" s="2"/>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" s="2"/>
       <c r="B135" s="11"/>
       <c r="C135" s="2"/>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" s="2"/>
       <c r="B136" s="11"/>
       <c r="C136" s="2"/>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" s="2"/>
       <c r="B137" s="11"/>
       <c r="C137" s="2"/>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" s="2"/>
       <c r="B138" s="11"/>
       <c r="C138" s="2"/>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" s="2"/>
       <c r="B139" s="11"/>
       <c r="C139" s="2"/>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" s="2"/>
       <c r="B140" s="11"/>
       <c r="C140" s="2"/>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" s="2"/>
       <c r="B141" s="11"/>
       <c r="C141" s="2"/>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" s="2"/>
       <c r="B142" s="11"/>
       <c r="C142" s="2"/>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" s="2"/>
       <c r="B143" s="11"/>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" s="2"/>
       <c r="B144" s="11"/>
       <c r="C144" s="2"/>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" s="2"/>
       <c r="B145" s="11"/>
       <c r="C145" s="2"/>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" s="2"/>
       <c r="B146" s="11"/>
       <c r="C146" s="2"/>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" s="2"/>
       <c r="B147" s="11"/>
       <c r="C147" s="2"/>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A148" s="2"/>
       <c r="B148" s="11"/>
       <c r="C148" s="2"/>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A149" s="2"/>
       <c r="B149" s="11"/>
       <c r="C149" s="2"/>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" s="2"/>
       <c r="B150" s="11"/>
       <c r="C150" s="2"/>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" s="2"/>
       <c r="B151" s="11"/>
       <c r="C151" s="2"/>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" s="2"/>
       <c r="B152" s="11"/>
       <c r="C152" s="2"/>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" s="2"/>
       <c r="B153" s="11"/>
       <c r="C153" s="2"/>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="2"/>
       <c r="B154" s="11"/>
       <c r="C154" s="2"/>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A155" s="2"/>
       <c r="B155" s="11"/>
       <c r="C155" s="2"/>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" s="2"/>
       <c r="B156" s="11"/>
       <c r="C156" s="2"/>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" s="2"/>
       <c r="B157" s="11"/>
       <c r="C157" s="2"/>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" s="2"/>
       <c r="B158" s="11"/>
       <c r="C158" s="2"/>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" s="2"/>
       <c r="B159" s="11"/>
       <c r="C159" s="2"/>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" s="2"/>
       <c r="B160" s="11"/>
       <c r="C160" s="2"/>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="2"/>
       <c r="B161" s="11"/>
       <c r="C161" s="2"/>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" s="2"/>
       <c r="B162" s="11"/>
       <c r="C162" s="2"/>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A163" s="2"/>
       <c r="B163" s="11"/>
       <c r="C163" s="2"/>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" s="2"/>
       <c r="B164" s="11"/>
       <c r="C164" s="2"/>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" s="2"/>
       <c r="B165" s="11"/>
       <c r="C165" s="2"/>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" s="2"/>
       <c r="B166" s="11"/>
       <c r="C166" s="2"/>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="2"/>
       <c r="B167" s="11"/>
       <c r="C167" s="2"/>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A168" s="2"/>
       <c r="B168" s="11"/>
       <c r="C168" s="2"/>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="2"/>
       <c r="B169" s="11"/>
       <c r="C169" s="2"/>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="2"/>
       <c r="B170" s="11"/>
       <c r="C170" s="2"/>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" s="2"/>
       <c r="B171" s="11"/>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" s="2"/>
       <c r="B172" s="11"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A173" s="2"/>
       <c r="B173" s="11"/>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" s="2"/>
       <c r="B174" s="11"/>
       <c r="C174" s="2"/>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A175" s="2"/>
       <c r="B175" s="11"/>
       <c r="C175" s="2"/>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A176" s="2"/>
       <c r="B176" s="11"/>
       <c r="C176" s="2"/>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" s="2"/>
       <c r="B177" s="11"/>
       <c r="C177" s="2"/>
@@ -1706,43 +1761,52 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB08C86-B509-4E1B-9B3D-EE2889F024B5}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="44.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.36328125" style="14"/>
+    <col min="2" max="2" width="10.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.90625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7265625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="44.36328125" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>6</v>
+        <v>37</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="13">
+      <c r="G1" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="13">
         <v>45047</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
       </c>
       <c r="C2" s="2">
         <v>1</v>
@@ -1750,457 +1814,628 @@
       <c r="D2" s="2">
         <v>1</v>
       </c>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="13">
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="13">
         <v>45048</v>
       </c>
-      <c r="B3" s="2">
+      <c r="C3" s="2">
         <v>2</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
-        <f>SUM(C2:C3)</f>
+      <c r="E3" s="2">
+        <f>SUM(D2:D3)</f>
         <v>2</v>
       </c>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="13">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="13">
         <v>45049</v>
       </c>
-      <c r="B4" s="2">
+      <c r="C4" s="2">
         <v>3</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <f>SUM(C2:C4)</f>
+      <c r="E4" s="2">
+        <f>SUM(D2:D4)</f>
         <v>3</v>
       </c>
-      <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="13">
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="13">
         <v>45050</v>
       </c>
-      <c r="B5" s="2">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>1</v>
       </c>
-      <c r="D5" s="2">
-        <f>SUM(C2:C5)</f>
+      <c r="E5" s="2">
+        <f>SUM(D2:D5)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="5"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="13">
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="13">
         <v>45051</v>
       </c>
-      <c r="B6" s="2">
+      <c r="C6" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="D6" s="2">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
-        <f>SUM(C2:C6)</f>
+      <c r="E6" s="2">
+        <f>SUM(D2:D6)</f>
         <v>5</v>
       </c>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="13">
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13">
         <v>45052</v>
       </c>
-      <c r="B7" s="2">
+      <c r="C7" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="D7" s="2">
         <v>1</v>
       </c>
-      <c r="D7" s="2">
-        <f>SUM(C2:C7)</f>
+      <c r="E7" s="2">
+        <f>SUM(D2:D7)</f>
         <v>6</v>
       </c>
-      <c r="E7" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="13">
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="13">
         <v>45053</v>
       </c>
-      <c r="B8" s="2">
+      <c r="C8" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="2">
+      <c r="D8" s="2">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
-        <f>SUM(C2:C8)</f>
+      <c r="E8" s="2">
+        <f>SUM(D2:D8)</f>
         <v>9</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="13">
+        <v>45054</v>
+      </c>
+      <c r="C9" s="2">
+        <v>8</v>
+      </c>
+      <c r="D9" s="2">
+        <v>3</v>
+      </c>
+      <c r="E9" s="2">
+        <f>SUM(D2:D9)</f>
+        <v>12</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="13">
+        <v>45055</v>
+      </c>
+      <c r="C10" s="2">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
+      <c r="E10" s="2">
+        <f>SUM(D2:D10)</f>
+        <v>14</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="13">
+        <v>45056</v>
+      </c>
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="13">
+        <v>45057</v>
+      </c>
+      <c r="C12" s="2">
+        <v>11</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>15</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="13">
+        <v>45058</v>
+      </c>
+      <c r="C13" s="2">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>15</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="13">
+        <v>45059</v>
+      </c>
+      <c r="C14" s="2">
+        <v>13</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13">
+        <v>45060</v>
+      </c>
+      <c r="C15" s="2">
+        <v>14</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>15</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="13">
+        <v>45061</v>
+      </c>
+      <c r="C16" s="2">
+        <v>15</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>16</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17" s="13">
+        <v>45062</v>
+      </c>
+      <c r="C17" s="2">
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>16</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="13">
+        <v>45063</v>
+      </c>
+      <c r="C18" s="2">
+        <v>17</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>16</v>
+      </c>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="13">
+        <v>45064</v>
+      </c>
+      <c r="C19" s="2">
+        <v>18</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>16</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="13">
+        <v>45065</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2">
+        <v>18</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="13">
+        <v>45066</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="13">
+        <v>45067</v>
+      </c>
+      <c r="C22" s="2">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
+      <c r="E22" s="2">
+        <v>20</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" s="2"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" s="13">
+        <v>45068</v>
+      </c>
+      <c r="C23" s="2">
+        <v>22</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>21</v>
+      </c>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="13">
+        <v>45069</v>
+      </c>
+      <c r="C24" s="2">
+        <v>23</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>22</v>
+      </c>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" s="13">
+        <v>45070</v>
+      </c>
+      <c r="C25" s="2">
+        <v>24</v>
+      </c>
+      <c r="D25" s="2">
+        <v>1</v>
+      </c>
+      <c r="E25" s="2">
+        <v>23</v>
+      </c>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="13">
+        <v>45071</v>
+      </c>
+      <c r="C26" s="2">
+        <v>25</v>
+      </c>
+      <c r="D26" s="2">
+        <v>2</v>
+      </c>
+      <c r="E26" s="2">
+        <v>25</v>
+      </c>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27" s="13">
+        <v>45072</v>
+      </c>
+      <c r="C27" s="2">
+        <v>26</v>
+      </c>
+      <c r="D27" s="2">
+        <v>2</v>
+      </c>
+      <c r="E27" s="2">
+        <v>27</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+    </row>
+    <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" s="13">
+        <v>45073</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+    </row>
+    <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="13">
+        <v>45074</v>
+      </c>
+      <c r="C29" s="2">
+        <v>28</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="G29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="13">
+        <v>45075</v>
+      </c>
+      <c r="C30" s="2">
+        <v>29</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" s="2"/>
+      <c r="B31" s="13">
+        <v>45076</v>
+      </c>
+      <c r="C31" s="2">
+        <v>30</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" s="2"/>
+      <c r="B32" s="13">
+        <v>45077</v>
+      </c>
+      <c r="C32" s="2">
+        <v>31</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" s="2"/>
+      <c r="B33" s="13">
+        <v>45078</v>
+      </c>
+      <c r="C33" s="2">
+        <v>32</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" s="2"/>
+      <c r="B34" s="13">
+        <v>45079</v>
+      </c>
+      <c r="C34" s="2">
+        <v>33</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" s="2"/>
+      <c r="B35" s="13">
+        <v>45080</v>
+      </c>
+      <c r="C35" s="2">
+        <v>34</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" s="2"/>
+      <c r="B36" s="13">
+        <v>45081</v>
+      </c>
+      <c r="C36" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="13">
-        <v>45054</v>
-      </c>
-      <c r="B9" s="2">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2">
-        <v>3</v>
-      </c>
-      <c r="D9" s="2">
-        <f>SUM(C2:C9)</f>
-        <v>12</v>
-      </c>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
-        <v>45055</v>
-      </c>
-      <c r="B10" s="2">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2">
-        <f>SUM(C2:C10)</f>
-        <v>14</v>
-      </c>
-      <c r="E10" s="5"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
-        <v>45056</v>
-      </c>
-      <c r="B11" s="2">
-        <v>10</v>
-      </c>
-      <c r="C11" s="5">
-        <v>1</v>
-      </c>
-      <c r="D11" s="5">
-        <v>15</v>
-      </c>
-      <c r="E11" s="5"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
-        <v>45057</v>
-      </c>
-      <c r="B12" s="2">
-        <v>11</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>15</v>
-      </c>
-      <c r="E12" s="5"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
-        <v>45058</v>
-      </c>
-      <c r="B13" s="2">
-        <v>12</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>15</v>
-      </c>
-      <c r="E13" s="5"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
-        <v>45059</v>
-      </c>
-      <c r="B14" s="2">
-        <v>13</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>15</v>
-      </c>
-      <c r="E14" s="5"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
-        <v>45060</v>
-      </c>
-      <c r="B15" s="2">
-        <v>14</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>15</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
-        <v>45061</v>
-      </c>
-      <c r="B16" s="2">
-        <v>15</v>
-      </c>
-      <c r="C16" s="5">
-        <v>1</v>
-      </c>
-      <c r="D16" s="5">
-        <v>16</v>
-      </c>
-      <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
-        <v>45062</v>
-      </c>
-      <c r="B17" s="2">
-        <v>16</v>
-      </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
-        <v>45063</v>
-      </c>
-      <c r="B18" s="2">
-        <v>17</v>
-      </c>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
-        <v>45064</v>
-      </c>
-      <c r="B19" s="2">
-        <v>18</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
-        <v>45065</v>
-      </c>
-      <c r="B20" s="2">
-        <v>19</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="13">
-        <v>45066</v>
-      </c>
-      <c r="B21" s="2">
-        <v>20</v>
-      </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="13">
-        <v>45067</v>
-      </c>
-      <c r="B22" s="2">
-        <v>21</v>
-      </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="13">
-        <v>45068</v>
-      </c>
-      <c r="B23" s="2">
-        <v>22</v>
-      </c>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="13">
-        <v>45069</v>
-      </c>
-      <c r="B24" s="2">
-        <v>23</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="13">
-        <v>45070</v>
-      </c>
-      <c r="B25" s="2">
-        <v>24</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="13">
-        <v>45071</v>
-      </c>
-      <c r="B26" s="2">
-        <v>25</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="13">
-        <v>45072</v>
-      </c>
-      <c r="B27" s="2">
-        <v>26</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="13">
-        <v>45073</v>
-      </c>
-      <c r="B28" s="2">
-        <v>27</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="13">
-        <v>45074</v>
-      </c>
-      <c r="B29" s="2">
-        <v>28</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="13">
-        <v>45075</v>
-      </c>
-      <c r="B30" s="2">
-        <v>29</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="13">
-        <v>45076</v>
-      </c>
-      <c r="B31" s="2">
-        <v>30</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="13">
-        <v>45077</v>
-      </c>
-      <c r="B32" s="2">
-        <v>31</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="13">
-        <v>45078</v>
-      </c>
-      <c r="B33" s="2">
-        <v>32</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="13">
-        <v>45079</v>
-      </c>
-      <c r="B34" s="2">
-        <v>33</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="13">
-        <v>45080</v>
-      </c>
-      <c r="B35" s="2">
-        <v>34</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="13">
-        <v>45081</v>
-      </c>
-      <c r="B36" s="2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="G36" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{773A1F4E-3B6F-4BD4-86C3-3143F99C744C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9BACA-DC2D-4856-9F70-3393A8918190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4800" yWindow="650" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -139,9 +139,6 @@
     <t>Week/Total</t>
   </si>
   <si>
-    <t>Week4</t>
-  </si>
-  <si>
     <t>Week1 -9</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Notes</t>
+  </si>
+  <si>
+    <t>Week4 32(avg 8hrs/wk)</t>
   </si>
 </sst>
 </file>
@@ -1764,7 +1764,7 @@
   <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1780,7 +1780,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -1798,12 +1798,12 @@
         <v>32</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="13">
         <v>45047</v>
@@ -1822,7 +1822,7 @@
     </row>
     <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="13">
         <v>45048</v>
@@ -1842,7 +1842,7 @@
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="13">
         <v>45049</v>
@@ -1862,7 +1862,7 @@
     </row>
     <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="13">
         <v>45050</v>
@@ -1938,7 +1938,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1964,7 +1964,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B10" s="13">
         <v>45055</v>
@@ -1984,7 +1984,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B11" s="13">
         <v>45056</v>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12" s="13">
         <v>45057</v>
@@ -2022,7 +2022,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13" s="13">
         <v>45058</v>
@@ -2041,7 +2041,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14" s="13">
         <v>45059</v>
@@ -2060,7 +2060,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15" s="13">
         <v>45060</v>
@@ -2075,13 +2075,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16" s="13">
         <v>45061</v>
@@ -2100,7 +2100,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17" s="13">
         <v>45062</v>
@@ -2119,7 +2119,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18" s="13">
         <v>45063</v>
@@ -2138,7 +2138,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B19" s="13">
         <v>45064</v>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B20" s="13">
         <v>45065</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="13">
         <v>45066</v>
@@ -2193,7 +2193,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="13">
         <v>45067</v>
@@ -2208,13 +2208,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B23" s="13">
         <v>45068</v>
@@ -2233,7 +2233,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B24" s="13">
         <v>45069</v>
@@ -2252,7 +2252,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B25" s="13">
         <v>45070</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="13">
         <v>45071</v>
@@ -2290,7 +2290,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B27" s="13">
         <v>45072</v>
@@ -2309,7 +2309,7 @@
     </row>
     <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B28" s="13">
         <v>45073</v>
@@ -2317,14 +2317,18 @@
       <c r="C28" s="2">
         <v>27</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="D28" s="2">
+        <v>2</v>
+      </c>
+      <c r="E28" s="2">
+        <v>29</v>
+      </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B29" s="13">
         <v>45074</v>
@@ -2332,16 +2336,20 @@
       <c r="C29" s="2">
         <v>28</v>
       </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="2">
+        <v>3</v>
+      </c>
+      <c r="E29" s="2">
+        <v>32</v>
+      </c>
       <c r="F29" s="2" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B30" s="13">
         <v>45075</v>
@@ -2349,8 +2357,12 @@
       <c r="C30" s="2">
         <v>29</v>
       </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
+      <c r="D30" s="2">
+        <v>3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>35</v>
+      </c>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
@@ -2430,7 +2442,7 @@
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G36" s="2"/>
     </row>

--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CF9BACA-DC2D-4856-9F70-3393A8918190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBEC528-7E74-464E-84D5-0D5ADD76A2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="650" windowWidth="14400" windowHeight="7360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Version" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
   <si>
     <t>Subject</t>
   </si>
@@ -139,15 +139,9 @@
     <t>Week/Total</t>
   </si>
   <si>
-    <t>Week1 -9</t>
-  </si>
-  <si>
     <t>Week5</t>
   </si>
   <si>
-    <t>Week2 15</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
@@ -182,9 +176,6 @@
   </si>
   <si>
     <t>Staring up Tim Corey, Visual Studio/Github/Personal Website setup and WordPress</t>
-  </si>
-  <si>
-    <t>Week3 20</t>
   </si>
   <si>
     <t>Learning review
@@ -194,7 +185,64 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Week4 32(avg 8hrs/wk)</t>
+    <t>TC MasterCourse Breakpoints</t>
+  </si>
+  <si>
+    <t>TC MasterCourse OOP1 Static and Instantiated Classes</t>
+  </si>
+  <si>
+    <t>TC MasterCourse OOP1 Classes Mini Project and reading</t>
+  </si>
+  <si>
+    <t>C#Players Guide Classes exercises</t>
+  </si>
+  <si>
+    <t>Nothing  @Download2023</t>
+  </si>
+  <si>
+    <t>Week6</t>
+  </si>
+  <si>
+    <t>Week7</t>
+  </si>
+  <si>
+    <t>Week8</t>
+  </si>
+  <si>
+    <t>Week9</t>
+  </si>
+  <si>
+    <t>Week10</t>
+  </si>
+  <si>
+    <t>Week11</t>
+  </si>
+  <si>
+    <t>Week12</t>
+  </si>
+  <si>
+    <t>Week13</t>
+  </si>
+  <si>
+    <t>TC Mastercourse OOP1 Battleship project Console App Creation Part 1</t>
+  </si>
+  <si>
+    <t>Week4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Week3 </t>
+  </si>
+  <si>
+    <t>TC Mastercourse OOP1 Battleship project intro &amp; Would, Class creation</t>
+  </si>
+  <si>
+    <t>TC Mastercourse OOP1 Battleship project Console App Creation Part 2. Writing up this log and updating blog</t>
   </si>
 </sst>
 </file>
@@ -345,7 +393,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1761,15 +1809,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB08C86-B509-4E1B-9B3D-EE2889F024B5}">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.36328125" style="14"/>
+    <col min="1" max="1" width="48.26953125" style="14" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.453125" style="14" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4" style="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" style="14" bestFit="1" customWidth="1"/>
@@ -1780,7 +1828,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B1" s="8" t="s">
         <v>6</v>
@@ -1798,12 +1846,12 @@
         <v>32</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" s="13">
         <v>45047</v>
@@ -1822,7 +1870,7 @@
     </row>
     <row r="3" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B3" s="13">
         <v>45048</v>
@@ -1842,7 +1890,7 @@
     </row>
     <row r="4" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B4" s="13">
         <v>45049</v>
@@ -1862,7 +1910,7 @@
     </row>
     <row r="5" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B5" s="13">
         <v>45050</v>
@@ -1938,7 +1986,7 @@
         <v>9</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2"/>
     </row>
@@ -1964,7 +2012,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="13">
         <v>45055</v>
@@ -1984,7 +2032,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B11" s="13">
         <v>45056</v>
@@ -2003,7 +2051,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B12" s="13">
         <v>45057</v>
@@ -2022,7 +2070,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" s="13">
         <v>45058</v>
@@ -2041,7 +2089,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14" s="13">
         <v>45059</v>
@@ -2060,7 +2108,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B15" s="13">
         <v>45060</v>
@@ -2075,13 +2123,13 @@
         <v>15</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="G15" s="2"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B16" s="13">
         <v>45061</v>
@@ -2100,7 +2148,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B17" s="13">
         <v>45062</v>
@@ -2119,7 +2167,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B18" s="13">
         <v>45063</v>
@@ -2138,7 +2186,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="13">
         <v>45064</v>
@@ -2157,7 +2205,7 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B20" s="13">
         <v>45065</v>
@@ -2176,7 +2224,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" s="13">
         <v>45066</v>
@@ -2193,7 +2241,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B22" s="13">
         <v>45067</v>
@@ -2208,13 +2256,13 @@
         <v>20</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B23" s="13">
         <v>45068</v>
@@ -2233,7 +2281,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B24" s="13">
         <v>45069</v>
@@ -2252,7 +2300,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B25" s="13">
         <v>45070</v>
@@ -2271,7 +2319,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B26" s="13">
         <v>45071</v>
@@ -2290,7 +2338,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="13">
         <v>45072</v>
@@ -2309,7 +2357,7 @@
     </row>
     <row r="28" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B28" s="13">
         <v>45073</v>
@@ -2328,7 +2376,7 @@
     </row>
     <row r="29" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B29" s="13">
         <v>45074</v>
@@ -2343,13 +2391,13 @@
         <v>32</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" ht="29" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B30" s="13">
         <v>45075</v>
@@ -2366,87 +2414,957 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="2"/>
+    <row r="31" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B31" s="13">
         <v>45076</v>
       </c>
       <c r="C31" s="2">
         <v>30</v>
       </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+      <c r="D31" s="2">
+        <v>1</v>
+      </c>
+      <c r="E31" s="2">
+        <v>36</v>
+      </c>
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="2"/>
+    <row r="32" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A32" s="4" t="s">
+        <v>46</v>
+      </c>
       <c r="B32" s="13">
         <v>45077</v>
       </c>
       <c r="C32" s="2">
         <v>31</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>37</v>
+      </c>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A33" s="2"/>
+      <c r="A33" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B33" s="13">
         <v>45078</v>
       </c>
       <c r="C33" s="2">
         <v>32</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>37</v>
+      </c>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="B34" s="13">
         <v>45079</v>
       </c>
       <c r="C34" s="2">
         <v>33</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>38</v>
+      </c>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2" t="s">
+        <v>49</v>
+      </c>
       <c r="B35" s="13">
         <v>45080</v>
       </c>
       <c r="C35" s="2">
         <v>34</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="2">
+        <v>3</v>
+      </c>
+      <c r="E35" s="2">
+        <v>41</v>
+      </c>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A36" s="2"/>
+      <c r="A36" s="2" t="s">
+        <v>50</v>
+      </c>
       <c r="B36" s="13">
         <v>45081</v>
       </c>
       <c r="C36" s="2">
         <v>35</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2">
+        <v>3</v>
+      </c>
+      <c r="E36" s="2">
+        <v>44</v>
+      </c>
       <c r="F36" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G36" s="2"/>
     </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="13">
+        <v>45082</v>
+      </c>
+      <c r="C37" s="2">
+        <v>36</v>
+      </c>
+      <c r="D37" s="2">
+        <v>2</v>
+      </c>
+      <c r="E37" s="2">
+        <v>46</v>
+      </c>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" s="13">
+        <v>45083</v>
+      </c>
+      <c r="C38" s="2">
+        <v>37</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>47</v>
+      </c>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A39" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" s="13">
+        <v>45084</v>
+      </c>
+      <c r="C39" s="2">
+        <v>38</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>47</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A40" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="13">
+        <v>45085</v>
+      </c>
+      <c r="C40" s="2">
+        <v>39</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>47</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A41" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B41" s="13">
+        <v>45086</v>
+      </c>
+      <c r="C41" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2">
+        <v>0</v>
+      </c>
+      <c r="E41" s="2">
+        <v>47</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A42" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B42" s="13">
+        <v>45087</v>
+      </c>
+      <c r="C42" s="2">
+        <v>41</v>
+      </c>
+      <c r="D42" s="2">
+        <v>0</v>
+      </c>
+      <c r="E42" s="2">
+        <v>47</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A43" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B43" s="13">
+        <v>45088</v>
+      </c>
+      <c r="C43" s="2">
+        <v>42</v>
+      </c>
+      <c r="D43" s="2">
+        <v>0</v>
+      </c>
+      <c r="E43" s="2">
+        <v>47</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B44" s="13">
+        <v>45089</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43</v>
+      </c>
+      <c r="D44" s="2">
+        <v>0</v>
+      </c>
+      <c r="E44" s="2">
+        <v>47</v>
+      </c>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A45" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="13">
+        <v>45090</v>
+      </c>
+      <c r="C45" s="2">
+        <v>44</v>
+      </c>
+      <c r="D45" s="2">
+        <v>0</v>
+      </c>
+      <c r="E45" s="2">
+        <v>47</v>
+      </c>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A46" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B46" s="13">
+        <v>45091</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2">
+        <v>49</v>
+      </c>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A47" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="13">
+        <v>45092</v>
+      </c>
+      <c r="C47" s="2">
+        <v>46</v>
+      </c>
+      <c r="D47" s="2">
+        <v>0</v>
+      </c>
+      <c r="E47" s="2">
+        <v>49</v>
+      </c>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+    </row>
+    <row r="48" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" s="13">
+        <v>45093</v>
+      </c>
+      <c r="C48" s="2">
+        <v>47</v>
+      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2">
+        <v>51</v>
+      </c>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A49" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B49" s="13">
+        <v>45094</v>
+      </c>
+      <c r="C49" s="2">
+        <v>48</v>
+      </c>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A50" s="2"/>
+      <c r="B50" s="13">
+        <v>45095</v>
+      </c>
+      <c r="C50" s="2">
+        <v>49</v>
+      </c>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+      <c r="B51" s="13">
+        <v>45096</v>
+      </c>
+      <c r="C51" s="2">
+        <v>50</v>
+      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A52" s="2"/>
+      <c r="B52" s="13">
+        <v>45097</v>
+      </c>
+      <c r="C52" s="2">
+        <v>51</v>
+      </c>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A53" s="2"/>
+      <c r="B53" s="13">
+        <v>45098</v>
+      </c>
+      <c r="C53" s="2">
+        <v>52</v>
+      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A54" s="2"/>
+      <c r="B54" s="13">
+        <v>45099</v>
+      </c>
+      <c r="C54" s="2">
+        <v>53</v>
+      </c>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A55" s="2"/>
+      <c r="B55" s="13">
+        <v>45100</v>
+      </c>
+      <c r="C55" s="2">
+        <v>54</v>
+      </c>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A56" s="2"/>
+      <c r="B56" s="13">
+        <v>45101</v>
+      </c>
+      <c r="C56" s="2">
+        <v>55</v>
+      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+      <c r="B57" s="13">
+        <v>45102</v>
+      </c>
+      <c r="C57" s="2">
+        <v>56</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G57" s="2"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A58" s="2"/>
+      <c r="B58" s="13">
+        <v>45103</v>
+      </c>
+      <c r="C58" s="2">
+        <v>57</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A59" s="2"/>
+      <c r="B59" s="13">
+        <v>45104</v>
+      </c>
+      <c r="C59" s="2">
+        <v>58</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A60" s="2"/>
+      <c r="B60" s="13">
+        <v>45105</v>
+      </c>
+      <c r="C60" s="2">
+        <v>59</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+      <c r="B61" s="13">
+        <v>45106</v>
+      </c>
+      <c r="C61" s="2">
+        <v>60</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A62" s="2"/>
+      <c r="B62" s="13">
+        <v>45107</v>
+      </c>
+      <c r="C62" s="2">
+        <v>61</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+      <c r="B63" s="13">
+        <v>45108</v>
+      </c>
+      <c r="C63" s="2">
+        <v>62</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A64" s="2"/>
+      <c r="B64" s="13">
+        <v>45109</v>
+      </c>
+      <c r="C64" s="2">
+        <v>63</v>
+      </c>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G64" s="2"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+      <c r="B65" s="13">
+        <v>45110</v>
+      </c>
+      <c r="C65" s="2">
+        <v>64</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A66" s="2"/>
+      <c r="B66" s="13">
+        <v>45111</v>
+      </c>
+      <c r="C66" s="2">
+        <v>65</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="2"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+      <c r="B67" s="13">
+        <v>45112</v>
+      </c>
+      <c r="C67" s="2">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A68" s="2"/>
+      <c r="B68" s="13">
+        <v>45113</v>
+      </c>
+      <c r="C68" s="2">
+        <v>67</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+      <c r="B69" s="13">
+        <v>45114</v>
+      </c>
+      <c r="C69" s="2">
+        <v>68</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A70" s="2"/>
+      <c r="B70" s="13">
+        <v>45115</v>
+      </c>
+      <c r="C70" s="2">
+        <v>69</v>
+      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+      <c r="B71" s="13">
+        <v>45116</v>
+      </c>
+      <c r="C71" s="2">
+        <v>70</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A72" s="2"/>
+      <c r="B72" s="13">
+        <v>45117</v>
+      </c>
+      <c r="C72" s="2">
+        <v>71</v>
+      </c>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+      <c r="B73" s="13">
+        <v>45118</v>
+      </c>
+      <c r="C73" s="2">
+        <v>72</v>
+      </c>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A74" s="2"/>
+      <c r="B74" s="13">
+        <v>45119</v>
+      </c>
+      <c r="C74" s="2">
+        <v>73</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+      <c r="B75" s="13">
+        <v>45120</v>
+      </c>
+      <c r="C75" s="2">
+        <v>74</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A76" s="2"/>
+      <c r="B76" s="13">
+        <v>45121</v>
+      </c>
+      <c r="C76" s="2">
+        <v>75</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+      <c r="B77" s="13">
+        <v>45122</v>
+      </c>
+      <c r="C77" s="2">
+        <v>76</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A78" s="2"/>
+      <c r="B78" s="13">
+        <v>45123</v>
+      </c>
+      <c r="C78" s="2">
+        <v>77</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+      <c r="B79" s="13">
+        <v>45124</v>
+      </c>
+      <c r="C79" s="2">
+        <v>78</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A80" s="2"/>
+      <c r="B80" s="13">
+        <v>45125</v>
+      </c>
+      <c r="C80" s="2">
+        <v>79</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+      <c r="B81" s="13">
+        <v>45126</v>
+      </c>
+      <c r="C81" s="2">
+        <v>80</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A82" s="2"/>
+      <c r="B82" s="13">
+        <v>45127</v>
+      </c>
+      <c r="C82" s="2">
+        <v>81</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+      <c r="B83" s="13">
+        <v>45128</v>
+      </c>
+      <c r="C83" s="2">
+        <v>82</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="2"/>
+      <c r="B84" s="13">
+        <v>45129</v>
+      </c>
+      <c r="C84" s="2">
+        <v>83</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A85" s="2"/>
+      <c r="B85" s="13">
+        <v>45130</v>
+      </c>
+      <c r="C85" s="2">
+        <v>84</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A86" s="2"/>
+      <c r="B86" s="13">
+        <v>45131</v>
+      </c>
+      <c r="C86" s="2">
+        <v>85</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="2"/>
+      <c r="B87" s="13">
+        <v>45132</v>
+      </c>
+      <c r="C87" s="2">
+        <v>86</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="2"/>
+      <c r="B88" s="13">
+        <v>45133</v>
+      </c>
+      <c r="C88" s="2">
+        <v>87</v>
+      </c>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="2"/>
+      <c r="B89" s="13">
+        <v>45134</v>
+      </c>
+      <c r="C89" s="2">
+        <v>88</v>
+      </c>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="2"/>
+      <c r="B90" s="13">
+        <v>45135</v>
+      </c>
+      <c r="C90" s="2">
+        <v>89</v>
+      </c>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="2"/>
+      <c r="B91" s="13">
+        <v>45136</v>
+      </c>
+      <c r="C91" s="2">
+        <v>90</v>
+      </c>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="2"/>
+      <c r="B92" s="13">
+        <v>45137</v>
+      </c>
+      <c r="C92" s="2">
+        <v>91</v>
+      </c>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="2"/>
+      <c r="B93" s="13">
+        <v>45138</v>
+      </c>
+      <c r="C93" s="2">
+        <v>92</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBEC528-7E74-464E-84D5-0D5ADD76A2A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8871C7A5-AFF8-458F-899E-E64F45C3EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
   <si>
     <t>Subject</t>
   </si>
@@ -243,6 +243,9 @@
   </si>
   <si>
     <t>TC Mastercourse OOP1 Battleship project Console App Creation Part 2. Writing up this log and updating blog</t>
+  </si>
+  <si>
+    <t>Tictactoe planning session just as per TC Battleship</t>
   </si>
 </sst>
 </file>
@@ -1811,8 +1814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FB08C86-B509-4E1B-9B3D-EE2889F024B5}">
   <dimension ref="A1:G93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2773,87 +2776,125 @@
       <c r="D49" s="2">
         <v>2</v>
       </c>
-      <c r="E49" s="2"/>
+      <c r="E49" s="2">
+        <v>53</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A50" s="2"/>
+      <c r="A50" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B50" s="13">
         <v>45095</v>
       </c>
       <c r="C50" s="2">
         <v>49</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2">
+        <v>0</v>
+      </c>
+      <c r="E50" s="2">
+        <v>53</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>54</v>
       </c>
       <c r="G50" s="2"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A51" s="2"/>
+      <c r="A51" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B51" s="13">
         <v>45096</v>
       </c>
       <c r="C51" s="2">
         <v>50</v>
       </c>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
+      <c r="D51" s="2">
+        <v>0</v>
+      </c>
+      <c r="E51" s="2">
+        <v>53</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" s="2"/>
+      <c r="A52" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B52" s="13">
         <v>45097</v>
       </c>
       <c r="C52" s="2">
         <v>51</v>
       </c>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2">
+        <v>0</v>
+      </c>
+      <c r="E52" s="2">
+        <v>53</v>
+      </c>
       <c r="F52" s="2"/>
       <c r="G52" s="2"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" s="2"/>
+      <c r="A53" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B53" s="13">
         <v>45098</v>
       </c>
       <c r="C53" s="2">
         <v>52</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="D53" s="2">
+        <v>0</v>
+      </c>
+      <c r="E53" s="2">
+        <v>53</v>
+      </c>
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" s="2"/>
+      <c r="A54" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B54" s="13">
         <v>45099</v>
       </c>
       <c r="C54" s="2">
         <v>53</v>
       </c>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="D54" s="2">
+        <v>0</v>
+      </c>
+      <c r="E54" s="2">
+        <v>53</v>
+      </c>
       <c r="F54" s="2"/>
       <c r="G54" s="2"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" s="2"/>
+      <c r="A55" s="2" t="s">
+        <v>68</v>
+      </c>
       <c r="B55" s="13">
         <v>45100</v>
       </c>
       <c r="C55" s="2">
         <v>54</v>
       </c>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="D55" s="2">
+        <v>3</v>
+      </c>
+      <c r="E55" s="2">
+        <v>56</v>
+      </c>
       <c r="F55" s="2"/>
       <c r="G55" s="2"/>
     </row>

--- a/C#MasterCourse2023.xlsx
+++ b/C#MasterCourse2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Learning-Path-Log\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8871C7A5-AFF8-458F-899E-E64F45C3EE64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2B738-1960-4623-AD3E-7FFF7BD7C9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="74">
   <si>
     <t>Subject</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>Tictactoe planning session just as per TC Battleship</t>
+  </si>
+  <si>
+    <t>Tictactoe coding</t>
+  </si>
+  <si>
+    <t>Inheritance using ChatGpt</t>
+  </si>
+  <si>
+    <t>Interfaces and homework example</t>
+  </si>
+  <si>
+    <t>Complete unit test ing worked example from ChatGPT</t>
+  </si>
+  <si>
+    <t>Skipping some OOP going to unit testing</t>
   </si>
 </sst>
 </file>
@@ -1815,7 +1830,7 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="44.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2899,95 +2914,137 @@
       <c r="G55" s="2"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" s="2"/>
+      <c r="A56" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B56" s="13">
         <v>45101</v>
       </c>
       <c r="C56" s="2">
         <v>55</v>
       </c>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
+        <v>58</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" s="2"/>
+      <c r="A57" s="2" t="s">
+        <v>69</v>
+      </c>
       <c r="B57" s="13">
         <v>45102</v>
       </c>
       <c r="C57" s="2">
         <v>56</v>
       </c>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
+      <c r="E57" s="2">
+        <v>60</v>
+      </c>
       <c r="F57" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G57" s="2"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" s="2"/>
+      <c r="A58" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B58" s="13">
         <v>45103</v>
       </c>
       <c r="C58" s="2">
         <v>57</v>
       </c>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2">
+        <v>62</v>
+      </c>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" s="2"/>
+      <c r="A59" s="2" t="s">
+        <v>36</v>
+      </c>
       <c r="B59" s="13">
         <v>45104</v>
       </c>
       <c r="C59" s="2">
         <v>58</v>
       </c>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="D59" s="2">
+        <v>0</v>
+      </c>
+      <c r="E59" s="2">
+        <v>62</v>
+      </c>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" s="2"/>
+      <c r="A60" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="B60" s="13">
         <v>45105</v>
       </c>
       <c r="C60" s="2">
         <v>59</v>
       </c>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2">
+        <v>64</v>
+      </c>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>73</v>
+      </c>
       <c r="B61" s="13">
         <v>45106</v>
       </c>
       <c r="C61" s="2">
         <v>60</v>
       </c>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
+      <c r="D61" s="2">
+        <v>3</v>
+      </c>
+      <c r="E61" s="2">
+        <v>67</v>
+      </c>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" s="2"/>
+      <c r="A62" s="2" t="s">
+        <v>72</v>
+      </c>
       <c r="B62" s="13">
         <v>45107</v>
       </c>
       <c r="C62" s="2">
         <v>61</v>
       </c>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
+      <c r="D62" s="2">
+        <v>3</v>
+      </c>
+      <c r="E62" s="2">
+        <v>70</v>
+      </c>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
     </row>
